--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2DC39-7B83-489B-AE77-266F3D515032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="196">
   <si>
     <t>Название продукта</t>
   </si>
@@ -251,9 +250,6 @@
     <t>130 г</t>
   </si>
   <si>
-    <t xml:space="preserve">Соус «Карбонара» </t>
-  </si>
-  <si>
     <t>Пюре</t>
   </si>
   <si>
@@ -390,18 +386,248 @@
   </si>
   <si>
     <t>250 г</t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAMYZiOPJdnMI5Oqxw74Kcqy-RoRhXMAAjHgMRv32CFJP9IAAdqXBa_IAQADAgADeQADNAQ</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAMiZiOWpCsL3SYC2mzPZBOdmVcY_58AAkrgMRv32CFJATgjwRBCNPsBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAMkZiOW7midWHCX62ZEgKpFRy490YsAAk3gMRv32CFJ8hvd6MC-Kb0BAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAMpZiOYAjp98Xh5OXudrPsWIuZpyrMAAlTgMRv32CFJdGI41FEtV7ABAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAMrZiOYI4eh0igsFx6AJ-6PbBEBqGQAAlXgMRv32CFJ_fbNrjMVrsoBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAMtZiOYY-rX19BYbAOEC6tp0pYIsGAAAlngMRv32CFJfLM6gyTLTBMBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAMvZiOYiEAcIzveVGb2BLfYrwWOzFEAAlrgMRv32CFJ4GcjzbHS63IBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAMxZiOYsVcB4fjuQjamEOxr7KjqY-0AAlvgMRv32CFJZXiQenpo1gUBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAMzZiOYyUTfSjnem5-9Zq5CzteMK3oAAlzgMRv32CFJiYUPCus3D8YBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAM1ZiOZI5PPyfcRxLSpgLu7GZTKeuoAAmjgMRv32CFJo0OAeYQ9doMBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAM3ZiOZSMMzYUMur8mxJ0kMhC_IjWwAAobgMRv32CFJs64l8zwQPnIBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAM5ZiOZaJOwgMh4kZurRVY3bNE1t44AApngMRv32CFJWHCAqvWS6vABAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAM-ZiObIA3l37EmoCh73h3bH_wZbtUAAqDgMRv32CFJUpx4uOcvZREBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Паста «Карбонара» </t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANCZiOctnO8Bp-xbQvpIKfKI-0FKAUAAqXgMRv32CFJRo6Czif_PrsBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANEZiOc6xqv_jyPMg9ib_LO2H493-0AAqfgMRv32CFJfAPILTXDf0MBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANIZiOdT5HggyN1C316kXgljz7-AAG1AAKo4DEb99ghSZ3oUgWMoxU6AQADAgADeQADNAQ</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANKZiOdm91fK4Kxq6J1xx4xTEI7gkQAAgnhMRv32CFJ4P5vpfSDkRQBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANMZiOd5eMR-9P1QnwAAZoeAmld_pzuAALk4TEb99ghSb-cKDhexBPNAQADAgADeQADNAQ</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANOZiOeE4ZTR6POhGKkm2uLwAZMUMwAApziMRv32CFJTB2Fj-WvfrABAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANQZiOece5SRSgl3hNwwg1d0jeq9YAAAjHjMRv32CFJMRwbVTJ4jFUBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANUZiOevzmUVHOnETf1XrvdiYz4CSkAAjvjMRv32CFJ4IQYMXwwNtgBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANWZiOe21ME3niYN9m5ChJ39QO2_tEAAnLjMRv32CFJJKPhHYFnGDkBAAMCAANtAAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANYZiOfWnWBeUO2vspwCyzBJUnqC68AApPjMRv32CFJZPnJ2x269MoBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANaZiOfc8rKl6SxqMMiOTzNovpQHwMAApTjMRv32CFJ0e57QmAjVNcBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANcZiOfiowGxZGTgxfTKgQHHsRRWPMAApbjMRv32CFJlKSP6cstY2oBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANeZiOfqmSSiDnQPOh1VftUzpKlWY4AApfjMRv32CFJ1OfXWNcT24YBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANgZiOgOc5SsBH8j1hD5uGG1XLeTHwAApnjMRv32CFJftdOemLxoSQBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANkZiOhXoeWJZoWIvlRySR6d1jIewcAArbjMRv32CFJUA2uRrovvtYBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANpZiOhqM_S_ONu7aMw2nThD0Z39esAArfjMRv32CFJhvsSpvdbHycBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANrZiOh1rOztzfDSdr2-xAZPfQlH40AArvjMRv32CFJOA8xjksfOMkBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANvZiOh_yehAAE_3mxsoXrXWlTTwB3ZAAK84zEb99ghSfCPIDmcZ0sIAQADAgADeQADNAQ</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAN1ZiOiPDpAHN624FE29dzTn1cTvREAAr3jMRv32CFJV89VCTkI3f8BAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAN9ZiOive8XfPIrbM1W9V8cyIocIBkAAsXjMRv32CFJyoQ4wZWHhaYBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOBZiOjWHd-MzGFwP2jYRV0nh8HTWYAAsnjMRv32CFJylaV4sVz51wBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOFZiOjkh_ndyOHD8x6obWmLnjxClEAAszjMRv32CFJGqSqse-3J7UBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOHZiOjrBgBLXHJv73U8o3EFH6gCt4AAs7jMRv32CFJbLusz7ZjuWwBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOJZiOjyW-xDzxeWSGpIt0gHLlHizMAAs_jMRv32CFJbHt348mtgTYBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOLZiOj4PjTLnvbRMlbiiek5D-OlysAAtDjMRv32CFJgfTdRCxc42cBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAONZiOkVpgjhkXgtiUqGB54bHNG0FgAAtHjMRv32CFJ3R8wZm_pWVYBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAORZiOknc07Pnx4BYhD8lH9ZInVHRAAAtLjMRv32CFJSOwdhC7TdnEBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOTZiOk15ucpBcyNhEyVci2G19bYEMAAtXjMRv32CFJ_AoXiHObUiEBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOXZiOlBLbL8_a6KzXIe9mvDcufTWQAAtbjMRv32CFJFu4oNHZaQyQBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOZZiOlSLoZpFvcqLoqOOCm6lWfwiEAAtfjMRv32CFJpOvspa10-M0BAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOdZiOlfylcAhtXYX4ZnocUJ5mD8BkAAtrjMRv32CFJVhlm7M7d794BAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOfZiOlxie2Cekh_35IVp02bpkmOmgAAt3jMRv32CFJN9VT8inDBT4BAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOhZiOl94M_EGcpBgRpNhfFU66VKIwAAt_jMRv32CFJ0mM6vmYhF68BAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOlZiOmPzbRFl5fBje3ehhgI080seQAAuHjMRv32CFJHmxMVhp8vB8BAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOnZiOmfN6gOPG0pVGwrm1N1xxGK-wAAuLjMRv32CFJLYBnAYyj0joBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOrZiOmww30EJBpOjpQHV-LFB-i_qQAAuTjMRv32CFJm2XL7NzjZY8BAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOvZiOm5zJYZrT_-zUaqLHEJ6V55jUAAubjMRv32CFJQv7i1xoAAYdOAQADAgADeQADNAQ</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOxZiOnBOc8G5mUx5Lc_daoTpQ8kn0AAujjMRv32CFJmso8N7a4rhYBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANAZiOcI_rDtbZIZbBBZruev9T6m18AAtjYMRsaSSFJRZwp5L4IHpcBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANGZiOdFnrn0qn1RD_tsxyRfTCU7VoAAt3YMRsaSSFJom_DISEDWiMBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANSZiOegFIAAdYPK_x5PtCjxfFtM6pDAALo2DEbGkkhSV3RTzsq0NRXAQADAgADeQADNAQ</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANiZiOhO9jtAAGli_TxvQXTqjewvlNYAAII2TEbGkkhSZSR48tLXDcFAQADAgADeAADNAQ</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANmZiOhcdiRbuH4N4mtk-mp6u6kxnsAAgvZMRsaSSFJAifOwxMgpEABAAMCAANtAAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANtZiOh28ppDedn27kS9dApcUKlRLkAAg7ZMRsaSSFJbTemOXuieucBAAMCAANtAAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAANxZiOiD49ScXSMFlvrxRWJMJxKjp0AAhHZMRsaSSFJHrxoBt5IuhEBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAN3ZiOiQ3mMeoVURQj7rAZcJo81_PMAAjHdMRsAATkYSZ6EdxcxhqvUAQADAgADeAADNAQ</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAN5ZiOiby8gVnpJ6fQkFELc4avOSEYAAhbZMRsaSSFJ5VCCLcsNM8oBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAN7ZiOinRdvHDlSC2P_v3GsvUiRY3UAAhjZMRsaSSFJtttwI6PsIdkBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAN_ZiOjSBBcuteGazMLmSVncMIdWroAAiDZMRsaSSFJTbpYd-zPRdIBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAODZiOjd9gLH-ReEMCuY19yvXkYqeAAAiHZMRsaSSFJ_tIQumWtI70BAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOzZiOobMVI15UmFOJVgMjr0yEf6FMAAgTkMRv32CFJgitmhVwD7vMBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOPZiOka_V7jXaBo0nu-Z6yXfpJrBsAAibZMRsaSSFJZ3r2Um9ku6gBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOVZiOk7DKlQ0WWAAEcnFxRYXpCf_cUAAIo2TEbGkkhSfl-yNyuzeKtAQADAgADeQADNAQ</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAObZiOlbqw1ipmOc-katJSDpLHA_ucAAivZMRsaSSFJ2zwPUCITau4BAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOjZiOmE9yKzU3rOFngmiUkETeWy7UAAjXZMRsaSSFJg-GNE6EgLVsBAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOpZiOmf-tko0JBwcFDoAEYpVeg1WAAAjfZMRsaSSFJ7oNi2iHPciEBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAOtZiOm1t3DIAKZULaA-Jn51JHcFAYAAjjZMRsaSSFJ65mip-E_8qABAAMCAAN4AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAO1ZiOphr70ddCTvJKtyw9YktQ_yQgAAg3kMRv32CFJbGPBD-JYZaoBAAMCAAN5AAM0BA</t>
+  </si>
+  <si>
+    <t>AgACAgIAAxkBAAO3ZiOpw8YqVpm9FfpJ_xmPX-QRXEwAAhTkMRv32CFJXeA7mERwZFIBAAMCAAN5AAM0BA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,6 +642,19 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -439,14 +678,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -465,9 +704,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -483,9 +735,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -523,7 +775,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -558,23 +810,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -610,26 +845,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -802,20 +1020,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +1047,9 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -838,7 +1059,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -851,7 +1072,9 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -861,7 +1084,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -874,7 +1097,9 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -884,7 +1109,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -897,7 +1122,9 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -907,9 +1134,9 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>70</v>
@@ -920,7 +1147,9 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -930,7 +1159,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -943,7 +1172,9 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -953,12 +1184,12 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>141</v>
@@ -966,7 +1197,9 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -976,7 +1209,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -989,7 +1222,9 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -999,12 +1234,12 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9">
         <v>164</v>
@@ -1012,7 +1247,9 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1022,12 +1259,12 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10">
         <v>169</v>
@@ -1035,7 +1272,9 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1045,12 +1284,12 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>198</v>
@@ -1058,7 +1297,9 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1068,20 +1309,22 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C12">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1091,20 +1334,22 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1114,20 +1359,22 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1137,20 +1384,22 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="C15">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1160,20 +1409,22 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C16">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1183,20 +1434,22 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1206,20 +1459,22 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C18">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1229,20 +1484,22 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1252,20 +1509,22 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C20">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1275,20 +1534,22 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1298,20 +1559,22 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C22">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1321,20 +1584,22 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>510</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1344,20 +1609,22 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C24">
-        <v>510</v>
+        <v>65</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1367,20 +1634,22 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C25">
-        <v>65</v>
+        <v>470</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1390,119 +1659,131 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>280</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26">
-        <v>470</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="B27" s="9" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C27">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>85</v>
@@ -1510,55 +1791,67 @@
       <c r="D33" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35">
-        <v>115</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>165</v>
@@ -1566,159 +1859,178 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>63</v>
+      <c r="E46" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>61</v>
+      <c r="E47" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1728,20 +2040,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1754,8 +2067,11 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1768,8 +2084,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1782,8 +2101,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1796,8 +2118,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1810,8 +2135,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1824,8 +2152,11 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1838,13 +2169,16 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <v>141</v>
@@ -1852,8 +2186,11 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1866,13 +2203,16 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>145</v>
@@ -1880,13 +2220,16 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <v>148</v>
@@ -1894,13 +2237,16 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>164</v>
@@ -1908,13 +2254,16 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13">
         <v>174</v>
@@ -1922,13 +2271,16 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>198</v>
@@ -1936,13 +2288,16 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>65</v>
@@ -1950,13 +2305,16 @@
       <c r="D15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>60</v>
@@ -1964,13 +2322,16 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17">
         <v>90</v>
@@ -1978,13 +2339,16 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18">
         <v>450</v>
@@ -1992,13 +2356,16 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -2006,13 +2373,16 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>460</v>
@@ -2020,13 +2390,16 @@
       <c r="D20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21">
         <v>60</v>
@@ -2034,13 +2407,16 @@
       <c r="D21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>450</v>
@@ -2048,13 +2424,16 @@
       <c r="D22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23">
         <v>60</v>
@@ -2062,13 +2441,16 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>470</v>
@@ -2076,13 +2458,16 @@
       <c r="D24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>60</v>
@@ -2090,13 +2475,16 @@
       <c r="D25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>510</v>
@@ -2104,13 +2492,16 @@
       <c r="D26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27">
         <v>65</v>
@@ -2118,13 +2509,16 @@
       <c r="D27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>470</v>
@@ -2132,8 +2526,11 @@
       <c r="D28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2146,13 +2543,16 @@
       <c r="D29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30">
         <v>75</v>
@@ -2160,13 +2560,16 @@
       <c r="D30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>85</v>
@@ -2174,13 +2577,16 @@
       <c r="D31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32">
         <v>75</v>
@@ -2188,13 +2594,16 @@
       <c r="D32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>90</v>
@@ -2202,13 +2611,16 @@
       <c r="D33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>75</v>
@@ -2216,13 +2628,16 @@
       <c r="D34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35">
         <v>115</v>
@@ -2230,13 +2645,16 @@
       <c r="D35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36">
         <v>70</v>
@@ -2244,13 +2662,16 @@
       <c r="D36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>75</v>
@@ -2258,13 +2679,16 @@
       <c r="D37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>85</v>
@@ -2272,13 +2696,16 @@
       <c r="D38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39">
         <v>85</v>
@@ -2286,13 +2713,16 @@
       <c r="D39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40">
         <v>115</v>
@@ -2300,13 +2730,16 @@
       <c r="D40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41">
         <v>120</v>
@@ -2314,13 +2747,16 @@
       <c r="D41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42">
         <v>165</v>
@@ -2328,13 +2764,16 @@
       <c r="D42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43">
         <v>165</v>
@@ -2342,13 +2781,16 @@
       <c r="D43" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44">
         <v>150</v>
@@ -2356,13 +2798,16 @@
       <c r="D44" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45">
         <v>160</v>
@@ -2370,13 +2815,16 @@
       <c r="D45" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46">
         <v>150</v>
@@ -2384,13 +2832,16 @@
       <c r="D46" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47">
         <v>165</v>
@@ -2398,13 +2849,16 @@
       <c r="D47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48">
         <v>90</v>
@@ -2412,13 +2866,16 @@
       <c r="D48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -2426,13 +2883,16 @@
       <c r="D49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50">
         <v>90</v>
@@ -2440,13 +2900,16 @@
       <c r="D50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51">
         <v>110</v>
@@ -2454,13 +2917,16 @@
       <c r="D51" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52">
         <v>14</v>
@@ -2468,13 +2934,16 @@
       <c r="D52" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53">
         <v>16</v>
@@ -2482,19 +2951,25 @@
       <c r="D53" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E53" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54">
         <v>6</v>
       </c>
       <c r="D54" t="s">
         <v>61</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2503,20 +2978,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D38"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2529,10 +3005,13 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>67</v>
@@ -2543,10 +3022,13 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>67</v>
@@ -2557,10 +3039,13 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>68</v>
@@ -2571,10 +3056,13 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>70</v>
@@ -2585,13 +3073,16 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -2599,10 +3090,13 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>75</v>
@@ -2613,13 +3107,16 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>164</v>
@@ -2627,10 +3124,13 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>75</v>
@@ -2641,13 +3141,16 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>196</v>
@@ -2655,13 +3158,16 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>119</v>
@@ -2669,13 +3175,16 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -2683,13 +3192,16 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>450</v>
@@ -2697,13 +3209,16 @@
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>60</v>
@@ -2711,13 +3226,16 @@
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>460</v>
@@ -2725,13 +3243,16 @@
       <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16">
         <v>60</v>
@@ -2739,13 +3260,16 @@
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>460</v>
@@ -2753,13 +3277,16 @@
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18">
         <v>60</v>
@@ -2767,13 +3294,16 @@
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>470</v>
@@ -2781,13 +3311,16 @@
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20">
         <v>60</v>
@@ -2795,13 +3328,16 @@
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>510</v>
@@ -2809,13 +3345,16 @@
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22">
         <v>65</v>
@@ -2823,13 +3362,16 @@
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>470</v>
@@ -2837,8 +3379,11 @@
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -2851,13 +3396,16 @@
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>75</v>
@@ -2865,13 +3413,16 @@
       <c r="D25" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>75</v>
@@ -2879,13 +3430,16 @@
       <c r="D26" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -2893,13 +3447,16 @@
       <c r="D27" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28">
         <v>113</v>
@@ -2907,13 +3464,16 @@
       <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29">
         <v>70</v>
@@ -2921,13 +3481,16 @@
       <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30">
         <v>120</v>
@@ -2935,13 +3498,16 @@
       <c r="D30" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>150</v>
@@ -2949,13 +3515,16 @@
       <c r="D31" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32">
         <v>150</v>
@@ -2963,13 +3532,16 @@
       <c r="D32" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>150</v>
@@ -2977,13 +3549,16 @@
       <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>80</v>
@@ -2991,13 +3566,16 @@
       <c r="D34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -3005,13 +3583,16 @@
       <c r="D35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36">
         <v>14</v>
@@ -3019,13 +3600,16 @@
       <c r="D36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -3033,19 +3617,25 @@
       <c r="D37" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>61</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3054,20 +3644,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3080,8 +3671,11 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -3094,8 +3688,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -3108,8 +3705,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -3122,10 +3722,13 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>70</v>
@@ -3136,8 +3739,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -3150,13 +3756,16 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>141</v>
@@ -3164,8 +3773,11 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -3178,8 +3790,11 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -3192,8 +3807,11 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -3206,8 +3824,11 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -3220,307 +3841,373 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="9">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C12">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B13" s="9">
         <v>150</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B14" s="9">
         <v>150</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="9">
-        <v>150</v>
-      </c>
       <c r="C15">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C16">
-        <v>450</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="B17" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C18">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C20">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C22">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>510</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C24">
-        <v>510</v>
+        <v>65</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C25">
+        <v>470</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>280</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27">
         <v>65</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26">
-        <v>470</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27">
-        <v>280</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>85</v>
@@ -3528,55 +4215,67 @@
       <c r="D33" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35">
-        <v>115</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>165</v>
@@ -3584,159 +4283,178 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>63</v>
+      <c r="E46" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>61</v>
+      <c r="E47" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3745,21 +4463,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3772,8 +4491,11 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3786,8 +4508,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3800,8 +4525,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3814,8 +4542,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3828,8 +4559,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3842,8 +4576,11 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3856,13 +4593,16 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <v>141</v>
@@ -3870,8 +4610,11 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3884,13 +4627,16 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>145</v>
@@ -3898,13 +4644,16 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <v>148</v>
@@ -3912,13 +4661,16 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>164</v>
@@ -3926,13 +4678,16 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13">
         <v>174</v>
@@ -3940,13 +4695,16 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>198</v>
@@ -3954,13 +4712,16 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>65</v>
@@ -3968,13 +4729,16 @@
       <c r="D15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>60</v>
@@ -3982,13 +4746,16 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17">
         <v>90</v>
@@ -3996,13 +4763,16 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18">
         <v>450</v>
@@ -4010,13 +4780,16 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -4024,13 +4797,16 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>460</v>
@@ -4038,13 +4814,16 @@
       <c r="D20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21">
         <v>60</v>
@@ -4052,13 +4831,16 @@
       <c r="D21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>450</v>
@@ -4066,13 +4848,16 @@
       <c r="D22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23">
         <v>60</v>
@@ -4080,13 +4865,16 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>470</v>
@@ -4094,13 +4882,16 @@
       <c r="D24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>60</v>
@@ -4108,13 +4899,16 @@
       <c r="D25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>510</v>
@@ -4122,13 +4916,16 @@
       <c r="D26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27">
         <v>65</v>
@@ -4136,13 +4933,16 @@
       <c r="D27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>470</v>
@@ -4150,8 +4950,11 @@
       <c r="D28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4164,13 +4967,16 @@
       <c r="D29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30">
         <v>75</v>
@@ -4178,13 +4984,16 @@
       <c r="D30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>85</v>
@@ -4192,13 +5001,16 @@
       <c r="D31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32">
         <v>75</v>
@@ -4206,13 +5018,16 @@
       <c r="D32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>90</v>
@@ -4220,13 +5035,16 @@
       <c r="D33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>75</v>
@@ -4234,13 +5052,16 @@
       <c r="D34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35">
         <v>115</v>
@@ -4248,13 +5069,16 @@
       <c r="D35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36">
         <v>70</v>
@@ -4262,13 +5086,16 @@
       <c r="D36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>75</v>
@@ -4276,13 +5103,16 @@
       <c r="D37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>85</v>
@@ -4290,13 +5120,16 @@
       <c r="D38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39">
         <v>85</v>
@@ -4304,13 +5137,16 @@
       <c r="D39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40">
         <v>115</v>
@@ -4318,13 +5154,16 @@
       <c r="D40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41">
         <v>120</v>
@@ -4332,13 +5171,16 @@
       <c r="D41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42">
         <v>165</v>
@@ -4346,13 +5188,16 @@
       <c r="D42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43">
         <v>165</v>
@@ -4360,13 +5205,16 @@
       <c r="D43" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44">
         <v>150</v>
@@ -4374,13 +5222,16 @@
       <c r="D44" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45">
         <v>160</v>
@@ -4388,13 +5239,16 @@
       <c r="D45" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46">
         <v>150</v>
@@ -4402,13 +5256,16 @@
       <c r="D46" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47">
         <v>165</v>
@@ -4416,13 +5273,16 @@
       <c r="D47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48">
         <v>90</v>
@@ -4430,13 +5290,16 @@
       <c r="D48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -4444,13 +5307,16 @@
       <c r="D49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50">
         <v>90</v>
@@ -4458,13 +5324,16 @@
       <c r="D50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51">
         <v>110</v>
@@ -4472,13 +5341,16 @@
       <c r="D51" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52">
         <v>14</v>
@@ -4486,13 +5358,16 @@
       <c r="D52" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53">
         <v>16</v>
@@ -4500,13 +5375,16 @@
       <c r="D53" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E53" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -4514,155 +5392,158 @@
       <c r="D54" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
     </row>
   </sheetData>
@@ -4672,20 +5553,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A2:D48"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4698,8 +5580,11 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -4712,8 +5597,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -4726,8 +5614,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -4740,10 +5631,13 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>70</v>
@@ -4754,8 +5648,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -4768,13 +5665,16 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>141</v>
@@ -4782,8 +5682,11 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -4796,8 +5699,11 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -4810,8 +5716,11 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -4824,8 +5733,11 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -4838,307 +5750,373 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="9">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C12">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B13" s="9">
         <v>150</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B14" s="9">
         <v>150</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="9">
-        <v>150</v>
-      </c>
       <c r="C15">
-        <v>80</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C16">
-        <v>450</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="B17" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C18">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C20">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>470</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C22">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>510</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C24">
-        <v>510</v>
+        <v>65</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C25">
+        <v>470</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>280</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27">
         <v>65</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26">
-        <v>470</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27">
-        <v>280</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>85</v>
@@ -5146,55 +6124,67 @@
       <c r="D33" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35">
-        <v>115</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>165</v>
@@ -5202,159 +6192,178 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C39">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>63</v>
+      <c r="E46" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>61</v>
+      <c r="E47" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5363,21 +6372,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="6" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5390,10 +6400,13 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>67</v>
@@ -5404,10 +6417,13 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>67</v>
@@ -5418,10 +6434,13 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>68</v>
@@ -5432,10 +6451,13 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>70</v>
@@ -5446,13 +6468,16 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -5460,10 +6485,13 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>75</v>
@@ -5474,13 +6502,16 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>164</v>
@@ -5488,10 +6519,13 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>75</v>
@@ -5502,13 +6536,16 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>196</v>
@@ -5516,13 +6553,16 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>119</v>
@@ -5530,13 +6570,16 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -5544,13 +6587,16 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>450</v>
@@ -5558,13 +6604,16 @@
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>60</v>
@@ -5572,13 +6621,16 @@
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>460</v>
@@ -5586,13 +6638,16 @@
       <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16">
         <v>60</v>
@@ -5600,13 +6655,16 @@
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>460</v>
@@ -5614,13 +6672,16 @@
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18">
         <v>60</v>
@@ -5628,13 +6689,16 @@
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>470</v>
@@ -5642,13 +6706,16 @@
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20">
         <v>60</v>
@@ -5656,13 +6723,16 @@
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>510</v>
@@ -5670,13 +6740,16 @@
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22">
         <v>65</v>
@@ -5684,13 +6757,16 @@
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>470</v>
@@ -5698,8 +6774,11 @@
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -5712,13 +6791,16 @@
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>75</v>
@@ -5726,13 +6808,16 @@
       <c r="D25" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>75</v>
@@ -5740,13 +6825,16 @@
       <c r="D26" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -5754,13 +6842,16 @@
       <c r="D27" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28">
         <v>113</v>
@@ -5768,13 +6859,16 @@
       <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29">
         <v>70</v>
@@ -5782,13 +6876,16 @@
       <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30">
         <v>120</v>
@@ -5796,13 +6893,16 @@
       <c r="D30" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>150</v>
@@ -5810,13 +6910,16 @@
       <c r="D31" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32">
         <v>150</v>
@@ -5824,13 +6927,16 @@
       <c r="D32" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>150</v>
@@ -5838,13 +6944,16 @@
       <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>80</v>
@@ -5852,13 +6961,16 @@
       <c r="D34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -5866,13 +6978,16 @@
       <c r="D35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36">
         <v>14</v>
@@ -5880,13 +6995,16 @@
       <c r="D36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -5894,19 +7012,25 @@
       <c r="D37" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>61</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BB327F-B8D7-4FC5-803D-806F0F2B72DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="196">
   <si>
     <t>Название продукта</t>
   </si>
@@ -613,7 +614,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -719,7 +720,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -735,9 +736,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -775,7 +776,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -810,6 +811,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -845,9 +863,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1020,21 +1055,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="100.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1094,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -1084,7 +1119,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -1109,7 +1144,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -1134,7 +1169,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -1159,7 +1194,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -1184,7 +1219,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
@@ -1209,7 +1244,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -1234,7 +1269,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1294,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -1284,7 +1319,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -1309,7 +1344,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
@@ -1334,7 +1369,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>113</v>
       </c>
@@ -1359,7 +1394,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
@@ -1384,7 +1419,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1409,7 +1444,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1434,7 +1469,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -1459,7 +1494,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -1484,7 +1519,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -1509,7 +1544,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -1534,7 +1569,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -1559,7 +1594,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -1584,7 +1619,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -1609,7 +1644,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -1634,7 +1669,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
@@ -1659,7 +1694,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -1676,7 +1711,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>88</v>
       </c>
@@ -1693,7 +1728,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>92</v>
       </c>
@@ -1710,7 +1745,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1727,7 +1762,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
@@ -1744,7 +1779,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -1761,7 +1796,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -1778,7 +1813,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>117</v>
       </c>
@@ -1795,7 +1830,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -1812,7 +1847,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
@@ -1829,7 +1864,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
@@ -1846,7 +1881,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
@@ -1863,7 +1898,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
@@ -1880,7 +1915,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
@@ -1897,7 +1932,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
@@ -1914,7 +1949,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
@@ -1931,7 +1966,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
@@ -1948,7 +1983,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>114</v>
       </c>
@@ -1965,7 +2000,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
@@ -1982,7 +2017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>62</v>
       </c>
@@ -1999,7 +2034,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>63</v>
       </c>
@@ -2016,7 +2051,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -2040,21 +2075,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="100.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2088,7 +2123,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2105,7 +2140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +2157,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +2174,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2156,7 +2191,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2173,7 +2208,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2190,7 +2225,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2207,7 +2242,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2259,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2241,7 +2276,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2258,7 +2293,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2275,7 +2310,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2292,7 +2327,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2309,7 +2344,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2326,7 +2361,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2343,7 +2378,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2360,7 +2395,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2377,7 +2412,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2394,7 +2429,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2411,7 +2446,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2428,7 +2463,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2462,7 +2497,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2479,7 +2514,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2496,7 +2531,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2513,7 +2548,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2530,7 +2565,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2547,7 +2582,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -2564,7 +2599,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2581,7 +2616,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -2598,7 +2633,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -2615,7 +2650,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -2632,7 +2667,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2649,7 +2684,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2683,7 +2718,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
@@ -2700,7 +2735,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -2717,7 +2752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -2734,7 +2769,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -2751,7 +2786,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
@@ -2768,7 +2803,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -2785,7 +2820,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -2802,7 +2837,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -2819,7 +2854,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -2836,7 +2871,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -2853,7 +2888,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>112</v>
       </c>
@@ -2870,7 +2905,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -2887,7 +2922,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -2904,7 +2939,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -2921,7 +2956,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -2938,7 +2973,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -2955,7 +2990,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>120</v>
       </c>
@@ -2978,21 +3013,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="100.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3009,7 +3044,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
@@ -3026,7 +3061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
@@ -3043,7 +3078,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -3060,7 +3095,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
@@ -3077,7 +3112,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
@@ -3094,7 +3129,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>100</v>
       </c>
@@ -3111,7 +3146,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
@@ -3128,7 +3163,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>99</v>
       </c>
@@ -3145,7 +3180,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -3162,7 +3197,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>136</v>
       </c>
@@ -3179,7 +3214,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>103</v>
       </c>
@@ -3196,7 +3231,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -3213,7 +3248,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -3230,7 +3265,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
@@ -3247,7 +3282,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
@@ -3264,7 +3299,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
@@ -3281,7 +3316,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
@@ -3298,7 +3333,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
@@ -3315,7 +3350,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -3332,7 +3367,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -3349,7 +3384,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>86</v>
       </c>
@@ -3366,7 +3401,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
@@ -3383,7 +3418,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -3400,7 +3435,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>105</v>
       </c>
@@ -3417,7 +3452,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>106</v>
       </c>
@@ -3434,7 +3469,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>107</v>
       </c>
@@ -3451,7 +3486,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
@@ -3468,7 +3503,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>89</v>
       </c>
@@ -3485,7 +3520,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>109</v>
       </c>
@@ -3502,7 +3537,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>111</v>
       </c>
@@ -3519,7 +3554,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
@@ -3536,7 +3571,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>110</v>
       </c>
@@ -3553,7 +3588,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>112</v>
       </c>
@@ -3570,7 +3605,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -3587,7 +3622,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
@@ -3604,7 +3639,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -3621,7 +3656,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>120</v>
       </c>
@@ -3644,21 +3679,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="100.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3675,7 +3710,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -3692,7 +3727,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -3709,7 +3744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -3726,7 +3761,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -3743,7 +3778,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -3760,7 +3795,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
@@ -3777,7 +3812,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -3794,7 +3829,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -3811,7 +3846,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -3828,7 +3863,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -3845,7 +3880,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
@@ -3862,7 +3897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>113</v>
       </c>
@@ -3879,7 +3914,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
@@ -3896,7 +3931,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -3913,7 +3948,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -3930,7 +3965,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -3947,7 +3982,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -3964,7 +3999,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -3981,7 +4016,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -3998,7 +4033,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -4015,7 +4050,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -4032,7 +4067,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -4049,7 +4084,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -4066,7 +4101,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
@@ -4083,7 +4118,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -4100,7 +4135,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>88</v>
       </c>
@@ -4117,7 +4152,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>92</v>
       </c>
@@ -4134,7 +4169,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -4151,7 +4186,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
@@ -4168,7 +4203,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -4185,7 +4220,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -4202,7 +4237,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>117</v>
       </c>
@@ -4219,7 +4254,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -4236,7 +4271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
@@ -4253,7 +4288,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
@@ -4270,7 +4305,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
@@ -4287,7 +4322,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
@@ -4304,7 +4339,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
@@ -4321,7 +4356,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
@@ -4338,7 +4373,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
@@ -4355,7 +4390,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
@@ -4372,7 +4407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>114</v>
       </c>
@@ -4389,7 +4424,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
@@ -4406,7 +4441,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>62</v>
       </c>
@@ -4423,7 +4458,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>63</v>
       </c>
@@ -4440,7 +4475,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -4463,7 +4498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -4471,14 +4506,14 @@
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="100.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4495,7 +4530,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4512,7 +4547,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4529,7 +4564,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4546,7 +4581,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4563,7 +4598,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4580,7 +4615,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4597,7 +4632,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4614,7 +4649,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4631,7 +4666,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4648,7 +4683,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -4665,7 +4700,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4682,7 +4717,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -4699,7 +4734,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4716,7 +4751,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4733,7 +4768,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4750,7 +4785,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -4767,7 +4802,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -4784,7 +4819,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -4801,7 +4836,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -4818,7 +4853,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -4835,7 +4870,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -4852,7 +4887,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -4869,7 +4904,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4886,7 +4921,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4903,7 +4938,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -4920,7 +4955,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -4937,7 +4972,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -4954,7 +4989,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4971,7 +5006,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -4988,7 +5023,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -5005,7 +5040,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -5022,7 +5057,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -5039,7 +5074,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -5056,7 +5091,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -5073,7 +5108,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -5090,7 +5125,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -5107,7 +5142,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
@@ -5124,7 +5159,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
@@ -5141,7 +5176,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -5158,7 +5193,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
@@ -5175,7 +5210,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>48</v>
       </c>
@@ -5192,7 +5227,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -5209,7 +5244,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
@@ -5226,7 +5261,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
@@ -5243,7 +5278,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -5260,7 +5295,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -5277,7 +5312,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>112</v>
       </c>
@@ -5294,7 +5329,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -5311,7 +5346,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -5328,7 +5363,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -5345,7 +5380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -5362,7 +5397,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -5379,7 +5414,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>120</v>
       </c>
@@ -5396,154 +5431,154 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
   </sheetData>
@@ -5553,21 +5588,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="100.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5584,7 +5619,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -5601,7 +5636,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5618,7 +5653,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5635,7 +5670,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -5652,7 +5687,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -5669,7 +5704,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
@@ -5686,7 +5721,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -5703,12 +5738,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
-        <v>220</v>
+      <c r="B9" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="C9">
         <v>164</v>
@@ -5720,12 +5755,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="9">
-        <v>250</v>
+      <c r="B10" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C10">
         <v>169</v>
@@ -5737,12 +5772,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="9">
-        <v>400</v>
+      <c r="B11" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="C11">
         <v>198</v>
@@ -5754,12 +5789,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="9">
-        <v>150</v>
+      <c r="B12" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C12">
         <v>65</v>
@@ -5771,12 +5806,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="9">
-        <v>150</v>
+      <c r="B13" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C13">
         <v>55</v>
@@ -5788,12 +5823,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="9">
-        <v>150</v>
+      <c r="B14" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C14">
         <v>80</v>
@@ -5805,7 +5840,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -5822,7 +5857,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -5839,7 +5874,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -5856,7 +5891,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -5873,7 +5908,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
@@ -5890,7 +5925,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -5907,7 +5942,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -5924,7 +5959,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -5941,7 +5976,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -5958,7 +5993,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -5975,7 +6010,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
@@ -5992,7 +6027,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -6009,7 +6044,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>88</v>
       </c>
@@ -6026,7 +6061,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>92</v>
       </c>
@@ -6043,7 +6078,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -6060,7 +6095,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
@@ -6077,7 +6112,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -6094,7 +6129,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -6111,7 +6146,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>117</v>
       </c>
@@ -6128,7 +6163,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -6145,7 +6180,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
@@ -6162,7 +6197,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
@@ -6179,7 +6214,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
@@ -6196,7 +6231,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
@@ -6213,7 +6248,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
@@ -6230,7 +6265,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
@@ -6247,7 +6282,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
@@ -6264,7 +6299,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
@@ -6281,7 +6316,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>114</v>
       </c>
@@ -6298,7 +6333,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
@@ -6315,7 +6350,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>62</v>
       </c>
@@ -6332,7 +6367,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>63</v>
       </c>
@@ -6349,7 +6384,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>120</v>
       </c>
@@ -6372,22 +6407,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="100.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6404,7 +6439,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
@@ -6421,7 +6456,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
@@ -6438,7 +6473,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -6455,7 +6490,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
@@ -6472,7 +6507,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
@@ -6489,7 +6524,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>100</v>
       </c>
@@ -6506,7 +6541,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
@@ -6523,7 +6558,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>99</v>
       </c>
@@ -6540,7 +6575,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>74</v>
       </c>
@@ -6557,7 +6592,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
@@ -6574,7 +6609,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>103</v>
       </c>
@@ -6591,7 +6626,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -6608,7 +6643,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -6625,7 +6660,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
@@ -6642,7 +6677,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
@@ -6659,7 +6694,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
@@ -6676,7 +6711,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
@@ -6693,7 +6728,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
@@ -6710,7 +6745,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -6727,7 +6762,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -6744,7 +6779,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>86</v>
       </c>
@@ -6761,7 +6796,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
@@ -6778,7 +6813,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -6795,7 +6830,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>105</v>
       </c>
@@ -6812,7 +6847,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>106</v>
       </c>
@@ -6829,7 +6864,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>107</v>
       </c>
@@ -6846,7 +6881,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
@@ -6863,7 +6898,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>89</v>
       </c>
@@ -6880,7 +6915,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>109</v>
       </c>
@@ -6897,7 +6932,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>111</v>
       </c>
@@ -6914,7 +6949,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
@@ -6931,7 +6966,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>110</v>
       </c>
@@ -6948,7 +6983,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>112</v>
       </c>
@@ -6965,7 +7000,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -6982,7 +7017,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
@@ -6999,7 +7034,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>63</v>
       </c>
@@ -7016,7 +7051,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>120</v>
       </c>
